--- a/src/assets/images/Creative Schedule.xlsx
+++ b/src/assets/images/Creative Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{463701DE-AF26-5A4B-88FB-EABD4C1D4119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD10FD4-9F11-9D40-8106-1B05F85563DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="780" windowWidth="25140" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="820" windowWidth="25140" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy Writing " sheetId="5" state="hidden" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="153">
   <si>
     <t xml:space="preserve">PROJECT </t>
   </si>
@@ -472,21 +472,12 @@
     <t>Sanele</t>
   </si>
   <si>
-    <t>Social media posts</t>
-  </si>
-  <si>
     <t>DEADLINE</t>
   </si>
   <si>
-    <t>Sent for review</t>
-  </si>
-  <si>
     <t xml:space="preserve">Addiing client changes </t>
   </si>
   <si>
-    <t>Waiting approval</t>
-  </si>
-  <si>
     <t>RMA Vehicle branding</t>
   </si>
   <si>
@@ -508,9 +499,6 @@
     <t>Web development</t>
   </si>
   <si>
-    <t>Work in progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">216 Website </t>
   </si>
   <si>
@@ -535,9 +523,6 @@
     <t>Brand identity</t>
   </si>
   <si>
-    <t>Source images for Allison</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROA Lounge and Office  </t>
   </si>
   <si>
@@ -578,6 +563,18 @@
   </si>
   <si>
     <t>Womens CAF</t>
+  </si>
+  <si>
+    <t>Jermaine's annual golf day</t>
+  </si>
+  <si>
+    <t>Key visual</t>
+  </si>
+  <si>
+    <t>Campaign elements</t>
+  </si>
+  <si>
+    <t>Event Planning</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1701,9 +1698,6 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="7" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1715,6 +1709,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2451,11 +2451,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2478,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="131" t="s">
         <v>53</v>
@@ -2516,31 +2516,29 @@
         <v>117</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="159"/>
+        <v>151</v>
+      </c>
+      <c r="D2" s="159">
+        <v>45271</v>
+      </c>
       <c r="E2" s="136"/>
-      <c r="F2" s="134" t="s">
-        <v>120</v>
-      </c>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="154" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3" s="163" t="s">
         <v>117</v>
       </c>
       <c r="C3" s="138" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="138">
-        <v>45265</v>
+        <v>45271</v>
       </c>
       <c r="E3" s="109"/>
-      <c r="F3" s="134" t="s">
-        <v>122</v>
-      </c>
+      <c r="F3" s="134"/>
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
       <c r="I3" s="74"/>
@@ -2564,20 +2562,20 @@
       <c r="AA3" s="74"/>
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155" t="s">
-        <v>124</v>
+      <c r="A4" s="175" t="s">
+        <v>149</v>
       </c>
       <c r="B4" s="164" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="C4" s="160" t="s">
+        <v>150</v>
       </c>
       <c r="D4" s="160">
-        <v>45268</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="132"/>
+        <v>45271</v>
+      </c>
+      <c r="E4" s="176"/>
+      <c r="F4" s="134"/>
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
       <c r="I4" s="74"/>
@@ -2601,135 +2599,146 @@
       <c r="AA4" s="74"/>
     </row>
     <row r="5" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="164" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="160" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+    </row>
+    <row r="6" spans="1:27" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="156" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="166"/>
+    </row>
+    <row r="7" spans="1:27" s="141" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="165" t="s">
+      <c r="B7" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C7" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+    </row>
+    <row r="8" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="157" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="127">
-        <v>45267</v>
-      </c>
-      <c r="E5" s="125">
-        <v>45268</v>
-      </c>
-      <c r="F5" s="166" t="s">
+      <c r="B8" s="169" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="116" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="141" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="D8" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="139"/>
+      <c r="F8" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="168" t="s">
+    </row>
+    <row r="9" spans="1:27" s="146" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="167">
-        <v>45266</v>
-      </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="140"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140"/>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="140"/>
-      <c r="U6" s="140"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140"/>
-      <c r="X6" s="140"/>
-      <c r="Y6" s="140"/>
-      <c r="Z6" s="140"/>
-      <c r="AA6" s="140"/>
-    </row>
-    <row r="7" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="157" t="s">
+      <c r="B9" s="170" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="169" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="116" t="s">
+      <c r="C9" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="134" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="146" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="170" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="143" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="143" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="135" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="167">
-        <v>45266</v>
-      </c>
-      <c r="E9" s="126">
-        <v>45268</v>
-      </c>
-      <c r="F9" s="134"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" spans="1:27" s="141" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="172" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="167">
-        <v>45267</v>
-      </c>
-      <c r="E10" s="109">
-        <v>45268</v>
-      </c>
-      <c r="F10" s="147" t="s">
-        <v>130</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="147"/>
       <c r="G10" s="140"/>
       <c r="H10" s="140"/>
       <c r="I10" s="140"/>
@@ -2754,105 +2763,93 @@
     </row>
     <row r="11" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="173" t="s">
-        <v>143</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="172" t="s">
+        <v>138</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="167">
-        <v>45267</v>
-      </c>
-      <c r="E11" s="126">
-        <v>45268</v>
-      </c>
-      <c r="F11" s="134" t="s">
-        <v>130</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D11" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="126"/>
+      <c r="F11" s="134"/>
     </row>
     <row r="12" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="174" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="173" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="167">
-        <v>45267</v>
-      </c>
-      <c r="E12" s="126">
-        <v>45268</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D12" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="126"/>
       <c r="F12" s="134"/>
     </row>
     <row r="13" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="135" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="173" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="167">
-        <v>45266</v>
-      </c>
-      <c r="E13" s="126">
-        <v>45266</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D13" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="126"/>
       <c r="F13" s="134"/>
     </row>
     <row r="14" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="135" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="174" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="173" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="167">
-        <v>45266</v>
-      </c>
-      <c r="E14" s="126">
-        <v>45267</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D14" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="126"/>
       <c r="F14" s="134"/>
     </row>
     <row r="15" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="135" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="175" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="B15" s="174" t="s">
+        <v>145</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="167">
-        <v>45267</v>
-      </c>
-      <c r="E15" s="126">
-        <v>45268</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D15" s="167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="126"/>
       <c r="F15" s="142"/>
     </row>
     <row r="16" spans="1:27" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="135" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="175" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="B16" s="174" t="s">
+        <v>145</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D16" s="116" t="s">
         <v>58</v>
@@ -2864,21 +2861,37 @@
     </row>
     <row r="17" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="135" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="175" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="B17" s="174" t="s">
+        <v>145</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="116" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="167">
+        <v>45271</v>
+      </c>
+      <c r="E17" s="126"/>
+      <c r="F17" s="149"/>
+    </row>
+    <row r="18" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="135" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="174" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="E18" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F18" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
